--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>835</v>
+        <v>668</v>
       </c>
       <c r="D2" t="n">
-        <v>887</v>
+        <v>602</v>
       </c>
       <c r="E2" t="n">
-        <v>991</v>
+        <v>685</v>
       </c>
       <c r="F2" t="n">
-        <v>1071</v>
+        <v>751</v>
       </c>
       <c r="G2" t="n">
-        <v>1189</v>
+        <v>850</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>810</v>
+        <v>657</v>
       </c>
       <c r="D3" t="n">
-        <v>894</v>
+        <v>514</v>
       </c>
       <c r="E3" t="n">
-        <v>1030</v>
+        <v>579</v>
       </c>
       <c r="F3" t="n">
-        <v>1145</v>
+        <v>629</v>
       </c>
       <c r="G3" t="n">
-        <v>1317</v>
+        <v>704</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>826</v>
+        <v>680</v>
       </c>
       <c r="D4" t="n">
-        <v>648</v>
+        <v>554</v>
       </c>
       <c r="E4" t="n">
-        <v>738</v>
+        <v>619</v>
       </c>
       <c r="F4" t="n">
-        <v>812</v>
+        <v>669</v>
       </c>
       <c r="G4" t="n">
-        <v>923</v>
+        <v>742</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>842</v>
+        <v>700</v>
       </c>
       <c r="D5" t="n">
-        <v>629</v>
+        <v>551</v>
       </c>
       <c r="E5" t="n">
-        <v>714</v>
+        <v>618</v>
       </c>
       <c r="F5" t="n">
-        <v>783</v>
+        <v>670</v>
       </c>
       <c r="G5" t="n">
-        <v>886</v>
+        <v>747</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>805</v>
+        <v>675</v>
       </c>
       <c r="D6" t="n">
-        <v>643</v>
+        <v>571</v>
       </c>
       <c r="E6" t="n">
-        <v>735</v>
+        <v>640</v>
       </c>
       <c r="F6" t="n">
-        <v>811</v>
+        <v>694</v>
       </c>
       <c r="G6" t="n">
-        <v>924</v>
+        <v>773</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>720</v>
+        <v>613</v>
       </c>
       <c r="D7" t="n">
-        <v>603</v>
+        <v>566</v>
       </c>
       <c r="E7" t="n">
-        <v>686</v>
+        <v>635</v>
       </c>
       <c r="F7" t="n">
-        <v>755</v>
+        <v>688</v>
       </c>
       <c r="G7" t="n">
-        <v>856</v>
+        <v>767</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>650</v>
+        <v>563</v>
       </c>
       <c r="D8" t="n">
-        <v>625</v>
+        <v>541</v>
       </c>
       <c r="E8" t="n">
-        <v>712</v>
+        <v>609</v>
       </c>
       <c r="F8" t="n">
-        <v>782</v>
+        <v>663</v>
       </c>
       <c r="G8" t="n">
-        <v>887</v>
+        <v>742</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>646</v>
+        <v>562</v>
       </c>
       <c r="D9" t="n">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>674</v>
+        <v>636</v>
       </c>
       <c r="F9" t="n">
-        <v>745</v>
+        <v>689</v>
       </c>
       <c r="G9" t="n">
-        <v>852</v>
+        <v>766</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>690</v>
+        <v>600</v>
       </c>
       <c r="D10" t="n">
-        <v>591</v>
+        <v>542</v>
       </c>
       <c r="E10" t="n">
-        <v>670</v>
+        <v>611</v>
       </c>
       <c r="F10" t="n">
-        <v>734</v>
+        <v>666</v>
       </c>
       <c r="G10" t="n">
-        <v>830</v>
+        <v>746</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>727</v>
+        <v>639</v>
       </c>
       <c r="D11" t="n">
-        <v>591</v>
+        <v>543</v>
       </c>
       <c r="E11" t="n">
-        <v>672</v>
+        <v>611</v>
       </c>
       <c r="F11" t="n">
-        <v>738</v>
+        <v>664</v>
       </c>
       <c r="G11" t="n">
-        <v>836</v>
+        <v>742</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>723</v>
+        <v>657</v>
       </c>
       <c r="D12" t="n">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="E12" t="n">
-        <v>652</v>
+        <v>611</v>
       </c>
       <c r="F12" t="n">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="G12" t="n">
-        <v>787</v>
+        <v>743</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>695</v>
+        <v>658</v>
       </c>
       <c r="D13" t="n">
-        <v>581</v>
+        <v>547</v>
       </c>
       <c r="E13" t="n">
-        <v>658</v>
+        <v>621</v>
       </c>
       <c r="F13" t="n">
-        <v>719</v>
+        <v>680</v>
       </c>
       <c r="G13" t="n">
-        <v>811</v>
+        <v>768</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="D14" t="n">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="E14" t="n">
-        <v>655</v>
+        <v>611</v>
       </c>
       <c r="F14" t="n">
-        <v>716</v>
+        <v>670</v>
       </c>
       <c r="G14" t="n">
-        <v>807</v>
+        <v>757</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="D15" t="n">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="E15" t="n">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="F15" t="n">
-        <v>701</v>
+        <v>657</v>
       </c>
       <c r="G15" t="n">
-        <v>792</v>
+        <v>746</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>654</v>
+        <v>629</v>
       </c>
       <c r="D16" t="n">
-        <v>557</v>
+        <v>514</v>
       </c>
       <c r="E16" t="n">
-        <v>637</v>
+        <v>588</v>
       </c>
       <c r="F16" t="n">
-        <v>703</v>
+        <v>650</v>
       </c>
       <c r="G16" t="n">
-        <v>801</v>
+        <v>743</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>651</v>
+        <v>619</v>
       </c>
       <c r="D17" t="n">
-        <v>554</v>
+        <v>512</v>
       </c>
       <c r="E17" t="n">
-        <v>630</v>
+        <v>584</v>
       </c>
       <c r="F17" t="n">
-        <v>692</v>
+        <v>642</v>
       </c>
       <c r="G17" t="n">
-        <v>784</v>
+        <v>729</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11605</t>
+          <t>10220</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6134</t>
+          <t>5118</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3313</t>
+          <t>2705</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>700</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>562</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,63 +425,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A2" t="n">
+        <v>762</v>
+      </c>
+      <c r="B2" t="n">
+        <v>736.1214404046106</v>
       </c>
       <c r="C2" t="n">
-        <v>668</v>
+        <v>808.825102762621</v>
       </c>
       <c r="D2" t="n">
         <v>602</v>
@@ -495,28 +546,61 @@
       <c r="G2" t="n">
         <v>850</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>160</v>
+      </c>
+      <c r="I2" t="n">
+        <v>26.578073089701</v>
+      </c>
+      <c r="J2" t="n">
+        <v>77</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11.24087591240876</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.464713715046605</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-88</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-10.35294117647059</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A3" t="n">
+        <v>729</v>
+      </c>
+      <c r="B3" t="n">
+        <v>704.3106832799555</v>
       </c>
       <c r="C3" t="n">
-        <v>657</v>
+        <v>774.442208576917</v>
       </c>
       <c r="D3" t="n">
         <v>514</v>
@@ -530,28 +614,61 @@
       <c r="G3" t="n">
         <v>704</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>215</v>
+      </c>
+      <c r="I3" t="n">
+        <v>41.82879377431907</v>
+      </c>
+      <c r="J3" t="n">
+        <v>150</v>
+      </c>
+      <c r="K3" t="n">
+        <v>25.90673575129533</v>
+      </c>
+      <c r="L3" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15.89825119236884</v>
+      </c>
+      <c r="N3" t="n">
+        <v>25</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.551136363636364</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="R3" t="b">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A4" t="n">
+        <v>734</v>
+      </c>
+      <c r="B4" t="n">
+        <v>710.0635097397466</v>
       </c>
       <c r="C4" t="n">
-        <v>680</v>
+        <v>778.36438638215</v>
       </c>
       <c r="D4" t="n">
         <v>554</v>
@@ -565,28 +682,61 @@
       <c r="G4" t="n">
         <v>742</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>180</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32.49097472924188</v>
+      </c>
+      <c r="J4" t="n">
+        <v>115</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.57835218093699</v>
+      </c>
+      <c r="L4" t="n">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.715994020926756</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-1.078167115902965</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="R4" t="b">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A5" t="n">
+        <v>748</v>
+      </c>
+      <c r="B5" t="n">
+        <v>722.168945659157</v>
       </c>
       <c r="C5" t="n">
-        <v>700</v>
+        <v>796.7387067042496</v>
       </c>
       <c r="D5" t="n">
         <v>551</v>
@@ -600,28 +750,61 @@
       <c r="G5" t="n">
         <v>747</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>197</v>
+      </c>
+      <c r="I5" t="n">
+        <v>35.75317604355717</v>
+      </c>
+      <c r="J5" t="n">
+        <v>130</v>
+      </c>
+      <c r="K5" t="n">
+        <v>21.03559870550162</v>
+      </c>
+      <c r="L5" t="n">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>11.64179104477612</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.1338688085676037</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="R5" t="b">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A6" t="n">
+        <v>720</v>
+      </c>
+      <c r="B6" t="n">
+        <v>693.9652502621722</v>
       </c>
       <c r="C6" t="n">
-        <v>675</v>
+        <v>769.4584531841806</v>
       </c>
       <c r="D6" t="n">
         <v>571</v>
@@ -635,28 +818,61 @@
       <c r="G6" t="n">
         <v>773</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>149</v>
+      </c>
+      <c r="I6" t="n">
+        <v>26.09457092819615</v>
+      </c>
+      <c r="J6" t="n">
+        <v>80</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>26</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.746397694524496</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-53</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-6.85640362225097</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A7" t="n">
+        <v>649</v>
+      </c>
+      <c r="B7" t="n">
+        <v>623.4801801357647</v>
       </c>
       <c r="C7" t="n">
-        <v>613</v>
+        <v>695.9747702712311</v>
       </c>
       <c r="D7" t="n">
         <v>566</v>
@@ -670,28 +886,61 @@
       <c r="G7" t="n">
         <v>767</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>83</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.6643109540636</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.204724409448819</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-39</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-5.668604651162791</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-118</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-15.38461538461539</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="R7" t="b">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A8" t="n">
+        <v>583</v>
+      </c>
+      <c r="B8" t="n">
+        <v>556.6607829438325</v>
       </c>
       <c r="C8" t="n">
-        <v>563</v>
+        <v>633.1222031475737</v>
       </c>
       <c r="D8" t="n">
         <v>541</v>
@@ -705,28 +954,61 @@
       <c r="G8" t="n">
         <v>742</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>42</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.763401109057301</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-26</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-4.269293924466338</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-80</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-12.06636500754148</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-159</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-21.42857142857143</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="R8" t="b">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A9" t="n">
+        <v>562</v>
+      </c>
+      <c r="B9" t="n">
+        <v>536.1762834831895</v>
       </c>
       <c r="C9" t="n">
-        <v>562</v>
+        <v>609.6043908176334</v>
       </c>
       <c r="D9" t="n">
         <v>569</v>
@@ -740,28 +1022,61 @@
       <c r="G9" t="n">
         <v>766</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>-7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1.230228471001757</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-74</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-11.63522012578616</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-127</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-18.43251088534107</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-204</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-26.63185378590078</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A10" t="n">
+        <v>586</v>
+      </c>
+      <c r="B10" t="n">
+        <v>559.9424095602575</v>
       </c>
       <c r="C10" t="n">
-        <v>600</v>
+        <v>635.4320769543092</v>
       </c>
       <c r="D10" t="n">
         <v>542</v>
@@ -775,28 +1090,61 @@
       <c r="G10" t="n">
         <v>746</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>44</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.118081180811808</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-4.091653027823241</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-80</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-12.01201201201201</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-160</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-21.44772117962466</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="R10" t="b">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A11" t="n">
+        <v>620</v>
+      </c>
+      <c r="B11" t="n">
+        <v>592.6878804497768</v>
       </c>
       <c r="C11" t="n">
-        <v>639</v>
+        <v>670.7199829840363</v>
       </c>
       <c r="D11" t="n">
         <v>543</v>
@@ -810,28 +1158,61 @@
       <c r="G11" t="n">
         <v>742</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>77</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14.1804788213628</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.472995090016367</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-44</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-6.626506024096386</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-122</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-16.44204851752022</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="R11" t="b">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A12" t="n">
+        <v>633</v>
+      </c>
+      <c r="B12" t="n">
+        <v>606.8540444231487</v>
       </c>
       <c r="C12" t="n">
-        <v>657</v>
+        <v>682.3014059437567</v>
       </c>
       <c r="D12" t="n">
         <v>543</v>
@@ -845,28 +1226,61 @@
       <c r="G12" t="n">
         <v>743</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>90</v>
+      </c>
+      <c r="I12" t="n">
+        <v>16.57458563535911</v>
+      </c>
+      <c r="J12" t="n">
+        <v>22</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.600654664484452</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-32</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-4.812030075187971</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-110</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-14.80484522207268</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="R12" t="b">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A13" t="n">
+        <v>628</v>
+      </c>
+      <c r="B13" t="n">
+        <v>602.1564340835924</v>
       </c>
       <c r="C13" t="n">
-        <v>658</v>
+        <v>677.1488477872711</v>
       </c>
       <c r="D13" t="n">
         <v>547</v>
@@ -880,28 +1294,61 @@
       <c r="G13" t="n">
         <v>768</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>81</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14.80804387568556</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.127214170692431</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-52</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-7.647058823529412</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-140</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-18.22916666666666</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="R13" t="b">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A14" t="n">
+        <v>619</v>
+      </c>
+      <c r="B14" t="n">
+        <v>590.725547218304</v>
       </c>
       <c r="C14" t="n">
-        <v>655</v>
+        <v>671.3162576294473</v>
       </c>
       <c r="D14" t="n">
         <v>539</v>
@@ -915,28 +1362,61 @@
       <c r="G14" t="n">
         <v>757</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>80</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14.84230055658627</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.309328968903437</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-51</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-7.611940298507462</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-138</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-18.22985468956407</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="R14" t="b">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A15" t="n">
+        <v>605</v>
+      </c>
+      <c r="B15" t="n">
+        <v>578.3632128326147</v>
       </c>
       <c r="C15" t="n">
-        <v>645</v>
+        <v>653.3690672526615</v>
       </c>
       <c r="D15" t="n">
         <v>524</v>
@@ -950,28 +1430,61 @@
       <c r="G15" t="n">
         <v>746</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>81</v>
+      </c>
+      <c r="I15" t="n">
+        <v>15.45801526717557</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.340033500837521</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-52</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-7.91476407914764</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-141</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-18.90080428954423</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="R15" t="b">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A16" t="n">
+        <v>595</v>
+      </c>
+      <c r="B16" t="n">
+        <v>566.5304468243141</v>
       </c>
       <c r="C16" t="n">
-        <v>629</v>
+        <v>647.8419391411314</v>
       </c>
       <c r="D16" t="n">
         <v>514</v>
@@ -985,28 +1498,61 @@
       <c r="G16" t="n">
         <v>743</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>81</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15.75875486381323</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.19047619047619</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-55</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-8.461538461538462</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-148</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-19.9192462987887</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="R16" t="b">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="A17" t="n">
+        <v>591</v>
+      </c>
+      <c r="B17" t="n">
+        <v>562.6804045490926</v>
       </c>
       <c r="C17" t="n">
-        <v>619</v>
+        <v>643.7050357529888</v>
       </c>
       <c r="D17" t="n">
         <v>512</v>
@@ -1020,13 +1566,50 @@
       <c r="G17" t="n">
         <v>729</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>79</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15.4296875</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.198630136986301</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-51</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-7.943925233644859</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-138</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-18.93004115226337</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="R17" t="b">
         <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10220</t>
+          <t>10364</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5118</t>
+          <t>5487</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2705</t>
+          <t>2973</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>762</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1783,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-12-08</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -526,13 +526,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B2" t="n">
-        <v>736.1214404046106</v>
+        <v>736.1214404660323</v>
       </c>
       <c r="C2" t="n">
-        <v>808.825102762621</v>
+        <v>812.5394078315877</v>
       </c>
       <c r="D2" t="n">
         <v>602</v>
@@ -547,28 +547,28 @@
         <v>850</v>
       </c>
       <c r="H2" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I2" t="n">
-        <v>26.578073089701</v>
+        <v>26.74418604651163</v>
       </c>
       <c r="J2" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="n">
-        <v>11.24087591240876</v>
+        <v>11.38686131386861</v>
       </c>
       <c r="L2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" t="n">
-        <v>1.464713715046605</v>
+        <v>1.597869507323569</v>
       </c>
       <c r="N2" t="n">
-        <v>-88</v>
+        <v>-87</v>
       </c>
       <c r="O2" t="n">
-        <v>-10.35294117647059</v>
+        <v>-10.23529411764706</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -594,13 +594,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B3" t="n">
-        <v>704.3106832799555</v>
+        <v>704.3106833316554</v>
       </c>
       <c r="C3" t="n">
-        <v>774.442208576917</v>
+        <v>778.545657493079</v>
       </c>
       <c r="D3" t="n">
         <v>514</v>
@@ -615,28 +615,28 @@
         <v>704</v>
       </c>
       <c r="H3" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I3" t="n">
-        <v>41.82879377431907</v>
+        <v>42.02334630350195</v>
       </c>
       <c r="J3" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K3" t="n">
-        <v>25.90673575129533</v>
+        <v>26.07944732297064</v>
       </c>
       <c r="L3" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M3" t="n">
-        <v>15.89825119236884</v>
+        <v>16.05723370429253</v>
       </c>
       <c r="N3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>3.551136363636364</v>
+        <v>3.693181818181818</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -662,13 +662,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B4" t="n">
-        <v>710.0635097397466</v>
+        <v>710.0635097949255</v>
       </c>
       <c r="C4" t="n">
-        <v>778.36438638215</v>
+        <v>786.2915960103575</v>
       </c>
       <c r="D4" t="n">
         <v>554</v>
@@ -683,28 +683,28 @@
         <v>742</v>
       </c>
       <c r="H4" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I4" t="n">
-        <v>32.49097472924188</v>
+        <v>33.03249097472924</v>
       </c>
       <c r="J4" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K4" t="n">
-        <v>18.57835218093699</v>
+        <v>19.06300484652666</v>
       </c>
       <c r="L4" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
-        <v>9.715994020926756</v>
+        <v>10.1644245142003</v>
       </c>
       <c r="N4" t="n">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.078167115902965</v>
+        <v>-0.6738544474393532</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -733,10 +733,10 @@
         <v>748</v>
       </c>
       <c r="B5" t="n">
-        <v>722.168945659157</v>
+        <v>722.1689457144977</v>
       </c>
       <c r="C5" t="n">
-        <v>796.7387067042496</v>
+        <v>795.951851946878</v>
       </c>
       <c r="D5" t="n">
         <v>551</v>
@@ -798,13 +798,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B6" t="n">
-        <v>693.9652502621722</v>
+        <v>693.9652503196022</v>
       </c>
       <c r="C6" t="n">
-        <v>769.4584531841806</v>
+        <v>765.2932745767976</v>
       </c>
       <c r="D6" t="n">
         <v>571</v>
@@ -819,28 +819,28 @@
         <v>773</v>
       </c>
       <c r="H6" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I6" t="n">
-        <v>26.09457092819615</v>
+        <v>25.91943957968476</v>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K6" t="n">
-        <v>12.5</v>
+        <v>12.34375</v>
       </c>
       <c r="L6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" t="n">
-        <v>3.746397694524496</v>
+        <v>3.602305475504323</v>
       </c>
       <c r="N6" t="n">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="O6" t="n">
-        <v>-6.85640362225097</v>
+        <v>-6.985769728331177</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -866,13 +866,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B7" t="n">
-        <v>623.4801801357647</v>
+        <v>623.480180192843</v>
       </c>
       <c r="C7" t="n">
-        <v>695.9747702712311</v>
+        <v>692.3597371299314</v>
       </c>
       <c r="D7" t="n">
         <v>566</v>
@@ -887,28 +887,28 @@
         <v>767</v>
       </c>
       <c r="H7" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" t="n">
-        <v>14.6643109540636</v>
+        <v>14.48763250883392</v>
       </c>
       <c r="J7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="n">
-        <v>2.204724409448819</v>
+        <v>2.047244094488189</v>
       </c>
       <c r="L7" t="n">
-        <v>-39</v>
+        <v>-40</v>
       </c>
       <c r="M7" t="n">
-        <v>-5.668604651162791</v>
+        <v>-5.813953488372093</v>
       </c>
       <c r="N7" t="n">
-        <v>-118</v>
+        <v>-119</v>
       </c>
       <c r="O7" t="n">
-        <v>-15.38461538461539</v>
+        <v>-15.51499348109518</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -934,13 +934,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B8" t="n">
-        <v>556.6607829438325</v>
+        <v>556.6607829988577</v>
       </c>
       <c r="C8" t="n">
-        <v>633.1222031475737</v>
+        <v>624.7854057387237</v>
       </c>
       <c r="D8" t="n">
         <v>541</v>
@@ -955,28 +955,28 @@
         <v>742</v>
       </c>
       <c r="H8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I8" t="n">
-        <v>7.763401109057301</v>
+        <v>7.393715341959335</v>
       </c>
       <c r="J8" t="n">
-        <v>-26</v>
+        <v>-28</v>
       </c>
       <c r="K8" t="n">
-        <v>-4.269293924466338</v>
+        <v>-4.597701149425287</v>
       </c>
       <c r="L8" t="n">
-        <v>-80</v>
+        <v>-82</v>
       </c>
       <c r="M8" t="n">
-        <v>-12.06636500754148</v>
+        <v>-12.36802413273002</v>
       </c>
       <c r="N8" t="n">
-        <v>-159</v>
+        <v>-161</v>
       </c>
       <c r="O8" t="n">
-        <v>-21.42857142857143</v>
+        <v>-21.69811320754717</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1002,13 +1002,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B9" t="n">
-        <v>536.1762834831895</v>
+        <v>536.1762835405923</v>
       </c>
       <c r="C9" t="n">
-        <v>609.6043908176334</v>
+        <v>615.1098577024078</v>
       </c>
       <c r="D9" t="n">
         <v>569</v>
@@ -1023,28 +1023,28 @@
         <v>766</v>
       </c>
       <c r="H9" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.230228471001757</v>
+        <v>-0.8787346221441126</v>
       </c>
       <c r="J9" t="n">
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="K9" t="n">
-        <v>-11.63522012578616</v>
+        <v>-11.32075471698113</v>
       </c>
       <c r="L9" t="n">
-        <v>-127</v>
+        <v>-125</v>
       </c>
       <c r="M9" t="n">
-        <v>-18.43251088534107</v>
+        <v>-18.1422351233672</v>
       </c>
       <c r="N9" t="n">
-        <v>-204</v>
+        <v>-202</v>
       </c>
       <c r="O9" t="n">
-        <v>-26.63185378590078</v>
+        <v>-26.37075718015666</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1070,13 +1070,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B10" t="n">
-        <v>559.9424095602575</v>
+        <v>559.9424096157301</v>
       </c>
       <c r="C10" t="n">
-        <v>635.4320769543092</v>
+        <v>630.0462180551151</v>
       </c>
       <c r="D10" t="n">
         <v>542</v>
@@ -1091,28 +1091,28 @@
         <v>746</v>
       </c>
       <c r="H10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" t="n">
-        <v>8.118081180811808</v>
+        <v>7.749077490774908</v>
       </c>
       <c r="J10" t="n">
-        <v>-25</v>
+        <v>-27</v>
       </c>
       <c r="K10" t="n">
-        <v>-4.091653027823241</v>
+        <v>-4.4189852700491</v>
       </c>
       <c r="L10" t="n">
-        <v>-80</v>
+        <v>-82</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.01201201201201</v>
+        <v>-12.31231231231231</v>
       </c>
       <c r="N10" t="n">
-        <v>-160</v>
+        <v>-162</v>
       </c>
       <c r="O10" t="n">
-        <v>-21.44772117962466</v>
+        <v>-21.71581769436997</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
         <v>620</v>
       </c>
       <c r="B11" t="n">
-        <v>592.6878804497768</v>
+        <v>592.6878805052553</v>
       </c>
       <c r="C11" t="n">
-        <v>670.7199829840363</v>
+        <v>671.8838628174072</v>
       </c>
       <c r="D11" t="n">
         <v>543</v>
@@ -1209,10 +1209,10 @@
         <v>633</v>
       </c>
       <c r="B12" t="n">
-        <v>606.8540444231487</v>
+        <v>606.8540444787864</v>
       </c>
       <c r="C12" t="n">
-        <v>682.3014059437567</v>
+        <v>682.0923904611881</v>
       </c>
       <c r="D12" t="n">
         <v>543</v>
@@ -1277,10 +1277,10 @@
         <v>628</v>
       </c>
       <c r="B13" t="n">
-        <v>602.1564340835924</v>
+        <v>602.1564341405259</v>
       </c>
       <c r="C13" t="n">
-        <v>677.1488477872711</v>
+        <v>676.4211674418284</v>
       </c>
       <c r="D13" t="n">
         <v>547</v>
@@ -1342,13 +1342,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B14" t="n">
-        <v>590.725547218304</v>
+        <v>590.7255472745051</v>
       </c>
       <c r="C14" t="n">
-        <v>671.3162576294473</v>
+        <v>668.2928446475427</v>
       </c>
       <c r="D14" t="n">
         <v>539</v>
@@ -1363,28 +1363,28 @@
         <v>757</v>
       </c>
       <c r="H14" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I14" t="n">
-        <v>14.84230055658627</v>
+        <v>14.65677179962894</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>1.309328968903437</v>
+        <v>1.145662847790507</v>
       </c>
       <c r="L14" t="n">
-        <v>-51</v>
+        <v>-52</v>
       </c>
       <c r="M14" t="n">
-        <v>-7.611940298507462</v>
+        <v>-7.761194029850746</v>
       </c>
       <c r="N14" t="n">
-        <v>-138</v>
+        <v>-139</v>
       </c>
       <c r="O14" t="n">
-        <v>-18.22985468956407</v>
+        <v>-18.36195508586526</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1410,13 +1410,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B15" t="n">
-        <v>578.3632128326147</v>
+        <v>578.3632128877764</v>
       </c>
       <c r="C15" t="n">
-        <v>653.3690672526615</v>
+        <v>651.7641054206223</v>
       </c>
       <c r="D15" t="n">
         <v>524</v>
@@ -1431,28 +1431,28 @@
         <v>746</v>
       </c>
       <c r="H15" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I15" t="n">
-        <v>15.45801526717557</v>
+        <v>15.26717557251908</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K15" t="n">
-        <v>1.340033500837521</v>
+        <v>1.172529313232831</v>
       </c>
       <c r="L15" t="n">
-        <v>-52</v>
+        <v>-53</v>
       </c>
       <c r="M15" t="n">
-        <v>-7.91476407914764</v>
+        <v>-8.06697108066971</v>
       </c>
       <c r="N15" t="n">
-        <v>-141</v>
+        <v>-142</v>
       </c>
       <c r="O15" t="n">
-        <v>-18.90080428954423</v>
+        <v>-19.03485254691689</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1478,13 +1478,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B16" t="n">
-        <v>566.5304468243141</v>
+        <v>566.5304468789577</v>
       </c>
       <c r="C16" t="n">
-        <v>647.8419391411314</v>
+        <v>642.0134989351232</v>
       </c>
       <c r="D16" t="n">
         <v>514</v>
@@ -1499,28 +1499,28 @@
         <v>743</v>
       </c>
       <c r="H16" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I16" t="n">
-        <v>15.75875486381323</v>
+        <v>15.36964980544747</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>1.19047619047619</v>
+        <v>0.8503401360544218</v>
       </c>
       <c r="L16" t="n">
-        <v>-55</v>
+        <v>-57</v>
       </c>
       <c r="M16" t="n">
-        <v>-8.461538461538462</v>
+        <v>-8.76923076923077</v>
       </c>
       <c r="N16" t="n">
-        <v>-148</v>
+        <v>-150</v>
       </c>
       <c r="O16" t="n">
-        <v>-19.9192462987887</v>
+        <v>-20.18842530282638</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1549,10 +1549,10 @@
         <v>591</v>
       </c>
       <c r="B17" t="n">
-        <v>562.6804045490926</v>
+        <v>562.6804046032312</v>
       </c>
       <c r="C17" t="n">
-        <v>643.7050357529888</v>
+        <v>642.191335439163</v>
       </c>
       <c r="D17" t="n">
         <v>512</v>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10364</t>
+          <t>10361</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5487</t>
+          <t>5490</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>2978</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>763</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>564</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,19 +425,19 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Forecast</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>yhat</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
@@ -460,79 +460,28 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Diff_Mean Forecast</t>
+          <t>Product Title</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Pct_Mean Forecast</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Diff_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Pct_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Diff_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Pct_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Diff_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Pct_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
           <t>is_holiday_week</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>763</v>
-      </c>
-      <c r="B2" t="n">
-        <v>736.1214404660323</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>812.5394078315877</v>
+        <v>758</v>
       </c>
       <c r="D2" t="n">
         <v>602</v>
@@ -546,61 +495,28 @@
       <c r="G2" t="n">
         <v>850</v>
       </c>
-      <c r="H2" t="n">
-        <v>161</v>
-      </c>
-      <c r="I2" t="n">
-        <v>26.74418604651163</v>
-      </c>
-      <c r="J2" t="n">
-        <v>78</v>
-      </c>
-      <c r="K2" t="n">
-        <v>11.38686131386861</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.597869507323569</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-87</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-10.23529411764706</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>730</v>
-      </c>
-      <c r="B3" t="n">
-        <v>704.3106833316554</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>778.545657493079</v>
+        <v>726</v>
       </c>
       <c r="D3" t="n">
         <v>514</v>
@@ -614,61 +530,28 @@
       <c r="G3" t="n">
         <v>704</v>
       </c>
-      <c r="H3" t="n">
-        <v>216</v>
-      </c>
-      <c r="I3" t="n">
-        <v>42.02334630350195</v>
-      </c>
-      <c r="J3" t="n">
-        <v>151</v>
-      </c>
-      <c r="K3" t="n">
-        <v>26.07944732297064</v>
-      </c>
-      <c r="L3" t="n">
-        <v>101</v>
-      </c>
-      <c r="M3" t="n">
-        <v>16.05723370429253</v>
-      </c>
-      <c r="N3" t="n">
-        <v>26</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3.693181818181818</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>737</v>
-      </c>
-      <c r="B4" t="n">
-        <v>710.0635097949255</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>786.2915960103575</v>
+        <v>733</v>
       </c>
       <c r="D4" t="n">
         <v>554</v>
@@ -682,61 +565,28 @@
       <c r="G4" t="n">
         <v>742</v>
       </c>
-      <c r="H4" t="n">
-        <v>183</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33.03249097472924</v>
-      </c>
-      <c r="J4" t="n">
-        <v>118</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19.06300484652666</v>
-      </c>
-      <c r="L4" t="n">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10.1644245142003</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-0.6738544474393532</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>748</v>
-      </c>
-      <c r="B5" t="n">
-        <v>722.1689457144977</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>795.951851946878</v>
+        <v>744</v>
       </c>
       <c r="D5" t="n">
         <v>551</v>
@@ -750,61 +600,28 @@
       <c r="G5" t="n">
         <v>747</v>
       </c>
-      <c r="H5" t="n">
-        <v>197</v>
-      </c>
-      <c r="I5" t="n">
-        <v>35.75317604355717</v>
-      </c>
-      <c r="J5" t="n">
-        <v>130</v>
-      </c>
-      <c r="K5" t="n">
-        <v>21.03559870550162</v>
-      </c>
-      <c r="L5" t="n">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>11.64179104477612</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.1338688085676037</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>719</v>
-      </c>
-      <c r="B6" t="n">
-        <v>693.9652503196022</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>765.2932745767976</v>
+        <v>716</v>
       </c>
       <c r="D6" t="n">
         <v>571</v>
@@ -818,61 +635,28 @@
       <c r="G6" t="n">
         <v>773</v>
       </c>
-      <c r="H6" t="n">
-        <v>148</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25.91943957968476</v>
-      </c>
-      <c r="J6" t="n">
-        <v>79</v>
-      </c>
-      <c r="K6" t="n">
-        <v>12.34375</v>
-      </c>
-      <c r="L6" t="n">
-        <v>25</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.602305475504323</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-54</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-6.985769728331177</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>648</v>
-      </c>
-      <c r="B7" t="n">
-        <v>623.480180192843</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>692.3597371299314</v>
+        <v>647</v>
       </c>
       <c r="D7" t="n">
         <v>566</v>
@@ -886,61 +670,28 @@
       <c r="G7" t="n">
         <v>767</v>
       </c>
-      <c r="H7" t="n">
-        <v>82</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14.48763250883392</v>
-      </c>
-      <c r="J7" t="n">
-        <v>13</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.047244094488189</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-40</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-5.813953488372093</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-119</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-15.51499348109518</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>581</v>
-      </c>
-      <c r="B8" t="n">
-        <v>556.6607829988577</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>624.7854057387237</v>
+        <v>579</v>
       </c>
       <c r="D8" t="n">
         <v>541</v>
@@ -954,61 +705,28 @@
       <c r="G8" t="n">
         <v>742</v>
       </c>
-      <c r="H8" t="n">
-        <v>40</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.393715341959335</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-28</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-4.597701149425287</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-82</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-12.36802413273002</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-161</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-21.69811320754717</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>564</v>
-      </c>
-      <c r="B9" t="n">
-        <v>536.1762835405923</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>615.1098577024078</v>
+        <v>558</v>
       </c>
       <c r="D9" t="n">
         <v>569</v>
@@ -1022,61 +740,28 @@
       <c r="G9" t="n">
         <v>766</v>
       </c>
-      <c r="H9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-0.8787346221441126</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-72</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-11.32075471698113</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-125</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-18.1422351233672</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-202</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-26.37075718015666</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>584</v>
-      </c>
-      <c r="B10" t="n">
-        <v>559.9424096157301</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>630.0462180551151</v>
+        <v>582</v>
       </c>
       <c r="D10" t="n">
         <v>542</v>
@@ -1090,61 +775,28 @@
       <c r="G10" t="n">
         <v>746</v>
       </c>
-      <c r="H10" t="n">
-        <v>42</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7.749077490774908</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-27</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-4.4189852700491</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-82</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-12.31231231231231</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-162</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-21.71581769436997</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>620</v>
-      </c>
-      <c r="B11" t="n">
-        <v>592.6878805052553</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>671.8838628174072</v>
+        <v>614</v>
       </c>
       <c r="D11" t="n">
         <v>543</v>
@@ -1158,61 +810,28 @@
       <c r="G11" t="n">
         <v>742</v>
       </c>
-      <c r="H11" t="n">
-        <v>77</v>
-      </c>
-      <c r="I11" t="n">
-        <v>14.1804788213628</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.472995090016367</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-44</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-6.626506024096386</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-122</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-16.44204851752022</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R11" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>633</v>
-      </c>
-      <c r="B12" t="n">
-        <v>606.8540444787864</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>682.0923904611881</v>
+        <v>630</v>
       </c>
       <c r="D12" t="n">
         <v>543</v>
@@ -1226,61 +845,28 @@
       <c r="G12" t="n">
         <v>743</v>
       </c>
-      <c r="H12" t="n">
-        <v>90</v>
-      </c>
-      <c r="I12" t="n">
-        <v>16.57458563535911</v>
-      </c>
-      <c r="J12" t="n">
-        <v>22</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.600654664484452</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-32</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-4.812030075187971</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-110</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-14.80484522207268</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R12" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>628</v>
-      </c>
-      <c r="B13" t="n">
-        <v>602.1564341405259</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>676.4211674418284</v>
+        <v>625</v>
       </c>
       <c r="D13" t="n">
         <v>547</v>
@@ -1294,61 +880,28 @@
       <c r="G13" t="n">
         <v>768</v>
       </c>
-      <c r="H13" t="n">
-        <v>81</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14.80804387568556</v>
-      </c>
-      <c r="J13" t="n">
-        <v>7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.127214170692431</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-52</v>
-      </c>
-      <c r="M13" t="n">
-        <v>-7.647058823529412</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-140</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-18.22916666666666</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R13" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>618</v>
-      </c>
-      <c r="B14" t="n">
-        <v>590.7255472745051</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>668.2928446475427</v>
+        <v>613</v>
       </c>
       <c r="D14" t="n">
         <v>539</v>
@@ -1362,61 +915,28 @@
       <c r="G14" t="n">
         <v>757</v>
       </c>
-      <c r="H14" t="n">
-        <v>79</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14.65677179962894</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.145662847790507</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-52</v>
-      </c>
-      <c r="M14" t="n">
-        <v>-7.761194029850746</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-139</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-18.36195508586526</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R14" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>604</v>
-      </c>
-      <c r="B15" t="n">
-        <v>578.3632128877764</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>651.7641054206223</v>
+        <v>602</v>
       </c>
       <c r="D15" t="n">
         <v>524</v>
@@ -1430,61 +950,28 @@
       <c r="G15" t="n">
         <v>746</v>
       </c>
-      <c r="H15" t="n">
-        <v>80</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15.26717557251908</v>
-      </c>
-      <c r="J15" t="n">
-        <v>7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.172529313232831</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-53</v>
-      </c>
-      <c r="M15" t="n">
-        <v>-8.06697108066971</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-142</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-19.03485254691689</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v/>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>593</v>
-      </c>
-      <c r="B16" t="n">
-        <v>566.5304468789577</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>642.0134989351232</v>
+        <v>590</v>
       </c>
       <c r="D16" t="n">
         <v>514</v>
@@ -1498,61 +985,28 @@
       <c r="G16" t="n">
         <v>743</v>
       </c>
-      <c r="H16" t="n">
-        <v>79</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15.36964980544747</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.8503401360544218</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-57</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-8.76923076923077</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-150</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-20.18842530282638</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>591</v>
-      </c>
-      <c r="B17" t="n">
-        <v>562.6804046032312</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>642.191335439163</v>
+        <v>587</v>
       </c>
       <c r="D17" t="n">
         <v>512</v>
@@ -1566,50 +1020,13 @@
       <c r="G17" t="n">
         <v>729</v>
       </c>
-      <c r="H17" t="n">
-        <v>79</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15.4296875</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.198630136986301</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-51</v>
-      </c>
-      <c r="M17" t="n">
-        <v>-7.943925233644859</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-138</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-18.93004115226337</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v/>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10361</t>
+          <t>10304</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5490</t>
+          <t>5461</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2978</t>
+          <t>2961</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>758</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>558</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D2" t="n">
         <v>602</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D3" t="n">
         <v>514</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D7" t="n">
         <v>566</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D8" t="n">
         <v>541</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D10" t="n">
         <v>542</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D11" t="n">
         <v>543</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D12" t="n">
         <v>543</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D13" t="n">
         <v>547</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D14" t="n">
         <v>539</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D16" t="n">
         <v>514</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10304</t>
+          <t>10303</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5461</t>
+          <t>5460</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2961</t>
+          <t>2963</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>759</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Forecast</t>
+          <t>Prophet Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>759</v>
+        <v>943.5</v>
       </c>
       <c r="D2" t="n">
-        <v>602</v>
+        <v>1082</v>
       </c>
       <c r="E2" t="n">
-        <v>685</v>
+        <v>1221</v>
       </c>
       <c r="F2" t="n">
-        <v>751</v>
+        <v>1331</v>
       </c>
       <c r="G2" t="n">
-        <v>850</v>
+        <v>1494</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>727</v>
+        <v>911</v>
       </c>
       <c r="D3" t="n">
-        <v>514</v>
+        <v>887</v>
       </c>
       <c r="E3" t="n">
-        <v>579</v>
+        <v>991</v>
       </c>
       <c r="F3" t="n">
-        <v>629</v>
+        <v>1071</v>
       </c>
       <c r="G3" t="n">
-        <v>704</v>
+        <v>1189</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>733</v>
+        <v>857.5</v>
       </c>
       <c r="D4" t="n">
-        <v>554</v>
+        <v>894</v>
       </c>
       <c r="E4" t="n">
-        <v>619</v>
+        <v>1030</v>
       </c>
       <c r="F4" t="n">
-        <v>669</v>
+        <v>1145</v>
       </c>
       <c r="G4" t="n">
-        <v>742</v>
+        <v>1317</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>744</v>
+        <v>843</v>
       </c>
       <c r="D5" t="n">
-        <v>551</v>
+        <v>648</v>
       </c>
       <c r="E5" t="n">
-        <v>618</v>
+        <v>738</v>
       </c>
       <c r="F5" t="n">
-        <v>670</v>
+        <v>812</v>
       </c>
       <c r="G5" t="n">
-        <v>747</v>
+        <v>923</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>716</v>
+        <v>837</v>
       </c>
       <c r="D6" t="n">
-        <v>571</v>
+        <v>629</v>
       </c>
       <c r="E6" t="n">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="F6" t="n">
-        <v>694</v>
+        <v>783</v>
       </c>
       <c r="G6" t="n">
-        <v>773</v>
+        <v>886</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>645</v>
+        <v>829.5</v>
       </c>
       <c r="D7" t="n">
-        <v>566</v>
+        <v>643</v>
       </c>
       <c r="E7" t="n">
-        <v>635</v>
+        <v>735</v>
       </c>
       <c r="F7" t="n">
-        <v>688</v>
+        <v>811</v>
       </c>
       <c r="G7" t="n">
-        <v>767</v>
+        <v>924</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>578</v>
+        <v>778.5</v>
       </c>
       <c r="D8" t="n">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="E8" t="n">
-        <v>609</v>
+        <v>686</v>
       </c>
       <c r="F8" t="n">
-        <v>663</v>
+        <v>755</v>
       </c>
       <c r="G8" t="n">
-        <v>742</v>
+        <v>856</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>558</v>
+        <v>728</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>625</v>
       </c>
       <c r="E9" t="n">
-        <v>636</v>
+        <v>712</v>
       </c>
       <c r="F9" t="n">
-        <v>689</v>
+        <v>782</v>
       </c>
       <c r="G9" t="n">
-        <v>766</v>
+        <v>887</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>584</v>
+        <v>689</v>
       </c>
       <c r="D10" t="n">
-        <v>542</v>
+        <v>588</v>
       </c>
       <c r="E10" t="n">
-        <v>611</v>
+        <v>674</v>
       </c>
       <c r="F10" t="n">
-        <v>666</v>
+        <v>745</v>
       </c>
       <c r="G10" t="n">
-        <v>746</v>
+        <v>852</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>615</v>
+        <v>703</v>
       </c>
       <c r="D11" t="n">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="E11" t="n">
-        <v>611</v>
+        <v>670</v>
       </c>
       <c r="F11" t="n">
-        <v>664</v>
+        <v>734</v>
       </c>
       <c r="G11" t="n">
-        <v>742</v>
+        <v>830</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>629</v>
+        <v>732.5</v>
       </c>
       <c r="D12" t="n">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="E12" t="n">
-        <v>611</v>
+        <v>672</v>
       </c>
       <c r="F12" t="n">
-        <v>665</v>
+        <v>738</v>
       </c>
       <c r="G12" t="n">
-        <v>743</v>
+        <v>836</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>773</v>
       </c>
       <c r="D13" t="n">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="E13" t="n">
-        <v>621</v>
+        <v>670</v>
       </c>
       <c r="F13" t="n">
-        <v>680</v>
+        <v>742</v>
       </c>
       <c r="G13" t="n">
-        <v>768</v>
+        <v>851</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>612</v>
+        <v>780.5</v>
       </c>
       <c r="D14" t="n">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="E14" t="n">
-        <v>611</v>
+        <v>661</v>
       </c>
       <c r="F14" t="n">
-        <v>670</v>
+        <v>732</v>
       </c>
       <c r="G14" t="n">
-        <v>757</v>
+        <v>837</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>602</v>
+        <v>779.5</v>
       </c>
       <c r="D15" t="n">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="E15" t="n">
-        <v>597</v>
+        <v>651</v>
       </c>
       <c r="F15" t="n">
-        <v>657</v>
+        <v>722</v>
       </c>
       <c r="G15" t="n">
-        <v>746</v>
+        <v>828</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>591</v>
+        <v>758</v>
       </c>
       <c r="D16" t="n">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="E16" t="n">
-        <v>588</v>
+        <v>653</v>
       </c>
       <c r="F16" t="n">
-        <v>650</v>
+        <v>729</v>
       </c>
       <c r="G16" t="n">
-        <v>743</v>
+        <v>844</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>587</v>
+        <v>754.5</v>
       </c>
       <c r="D17" t="n">
-        <v>512</v>
+        <v>565</v>
       </c>
       <c r="E17" t="n">
-        <v>584</v>
+        <v>651</v>
       </c>
       <c r="F17" t="n">
-        <v>642</v>
+        <v>725</v>
       </c>
       <c r="G17" t="n">
-        <v>729</v>
+        <v>835</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-12-01</t>
+          <t>2022-12-25 to 2024-11-24</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>1170</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>509</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>561</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>52137 units</t>
+          <t>51410 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10303</t>
+          <t>12698</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>6728</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2963</t>
+          <t>3555</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>944</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>689</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>943.5</v>
+        <v>938.5</v>
       </c>
       <c r="D2" t="n">
         <v>1082</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>911</v>
+        <v>821.5</v>
       </c>
       <c r="D3" t="n">
         <v>887</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>857.5</v>
+        <v>748.5</v>
       </c>
       <c r="D4" t="n">
         <v>894</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>843</v>
+        <v>763.5</v>
       </c>
       <c r="D5" t="n">
         <v>648</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>837</v>
+        <v>732</v>
       </c>
       <c r="D6" t="n">
         <v>629</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>829.5</v>
+        <v>750</v>
       </c>
       <c r="D7" t="n">
         <v>643</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>778.5</v>
+        <v>673.5</v>
       </c>
       <c r="D8" t="n">
         <v>603</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>728</v>
+        <v>648.5</v>
       </c>
       <c r="D9" t="n">
         <v>625</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>689</v>
+        <v>584</v>
       </c>
       <c r="D10" t="n">
         <v>588</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>703</v>
+        <v>623.5</v>
       </c>
       <c r="D11" t="n">
         <v>591</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>732.5</v>
+        <v>627.5</v>
       </c>
       <c r="D12" t="n">
         <v>591</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>773</v>
+        <v>693.5</v>
       </c>
       <c r="D13" t="n">
         <v>583</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>780.5</v>
+        <v>675.5</v>
       </c>
       <c r="D14" t="n">
         <v>577</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>779.5</v>
+        <v>700</v>
       </c>
       <c r="D15" t="n">
         <v>566</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>758</v>
+        <v>653</v>
       </c>
       <c r="D16" t="n">
         <v>564</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>754.5</v>
+        <v>675</v>
       </c>
       <c r="D17" t="n">
         <v>565</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12698</t>
+          <t>11308</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6728</t>
+          <t>6076</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3555</t>
+          <t>3272</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>938</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>584</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>938.5</v>
+        <v>730.3</v>
       </c>
       <c r="D2" t="n">
         <v>1082</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>821.5</v>
+        <v>660.4</v>
       </c>
       <c r="D3" t="n">
         <v>887</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>748.5</v>
+        <v>602.7</v>
       </c>
       <c r="D4" t="n">
         <v>894</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>763.5</v>
+        <v>596.4</v>
       </c>
       <c r="D5" t="n">
         <v>648</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>732</v>
+        <v>583.8</v>
       </c>
       <c r="D6" t="n">
         <v>629</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>750</v>
+        <v>582.9</v>
       </c>
       <c r="D7" t="n">
         <v>643</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>673.5</v>
+        <v>525.3</v>
       </c>
       <c r="D8" t="n">
         <v>603</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>648.5</v>
+        <v>481.4</v>
       </c>
       <c r="D9" t="n">
         <v>625</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>584</v>
+        <v>435.8</v>
       </c>
       <c r="D10" t="n">
         <v>588</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>623.5</v>
+        <v>456.4</v>
       </c>
       <c r="D11" t="n">
         <v>591</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>627.5</v>
+        <v>479.3</v>
       </c>
       <c r="D12" t="n">
         <v>591</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>693.5</v>
+        <v>526.4</v>
       </c>
       <c r="D13" t="n">
         <v>583</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>675.5</v>
+        <v>527.3</v>
       </c>
       <c r="D14" t="n">
         <v>577</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>700</v>
+        <v>532.9</v>
       </c>
       <c r="D15" t="n">
         <v>566</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>653</v>
+        <v>504.8</v>
       </c>
       <c r="D16" t="n">
         <v>564</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>675</v>
+        <v>507.9</v>
       </c>
       <c r="D17" t="n">
         <v>565</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11308</t>
+          <t>8734</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>4763</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3272</t>
+          <t>2590</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>730</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>436</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>730.3</v>
+        <v>1054.9</v>
       </c>
       <c r="D2" t="n">
         <v>1082</v>
@@ -500,8 +500,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>660.4</v>
+        <v>926.5</v>
       </c>
       <c r="D3" t="n">
         <v>887</v>
@@ -535,8 +535,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>602.7</v>
+        <v>870.9000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>894</v>
@@ -570,8 +570,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>596.4</v>
+        <v>790.8</v>
       </c>
       <c r="D5" t="n">
         <v>648</v>
@@ -605,8 +605,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>583.8</v>
+        <v>772.5</v>
       </c>
       <c r="D6" t="n">
         <v>629</v>
@@ -640,8 +640,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>582.9</v>
+        <v>775.8</v>
       </c>
       <c r="D7" t="n">
         <v>643</v>
@@ -675,8 +675,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>525.3</v>
+        <v>706.1999999999999</v>
       </c>
       <c r="D8" t="n">
         <v>603</v>
@@ -710,8 +710,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>481.4</v>
+        <v>668.9</v>
       </c>
       <c r="D9" t="n">
         <v>625</v>
@@ -745,8 +745,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>435.8</v>
+        <v>612.2</v>
       </c>
       <c r="D10" t="n">
         <v>588</v>
@@ -780,8 +780,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>456.4</v>
+        <v>633.6999999999999</v>
       </c>
       <c r="D11" t="n">
         <v>591</v>
@@ -815,8 +815,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>479.3</v>
+        <v>656.6</v>
       </c>
       <c r="D12" t="n">
         <v>591</v>
@@ -850,8 +850,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>526.4</v>
+        <v>701.3</v>
       </c>
       <c r="D13" t="n">
         <v>583</v>
@@ -885,8 +885,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>527.3</v>
+        <v>700.4</v>
       </c>
       <c r="D14" t="n">
         <v>577</v>
@@ -920,8 +920,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>532.9</v>
+        <v>702.6999999999999</v>
       </c>
       <c r="D15" t="n">
         <v>566</v>
@@ -955,8 +955,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>504.8</v>
+        <v>674</v>
       </c>
       <c r="D16" t="n">
         <v>564</v>
@@ -990,8 +990,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>507.9</v>
+        <v>677.4</v>
       </c>
       <c r="D17" t="n">
         <v>565</v>
@@ -1025,8 +1025,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8734</t>
+          <t>11925</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>6566</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>3643</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>1055</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>612</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>790.8</v>
+        <v>647</v>
       </c>
       <c r="D5" t="n">
         <v>648</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>772.5</v>
+        <v>618.1999999999999</v>
       </c>
       <c r="D6" t="n">
         <v>629</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>775.8</v>
+        <v>643.4</v>
       </c>
       <c r="D7" t="n">
         <v>643</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>706.1999999999999</v>
+        <v>597.1</v>
       </c>
       <c r="D8" t="n">
         <v>603</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>701.3</v>
+        <v>594.4499999999999</v>
       </c>
       <c r="D13" t="n">
         <v>583</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>700.4</v>
+        <v>576.5500000000001</v>
       </c>
       <c r="D14" t="n">
         <v>577</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>702.6999999999999</v>
+        <v>580.5</v>
       </c>
       <c r="D15" t="n">
         <v>566</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>674</v>
+        <v>567.15</v>
       </c>
       <c r="D16" t="n">
         <v>564</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>677.4</v>
+        <v>580</v>
       </c>
       <c r="D17" t="n">
         <v>565</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11925</t>
+          <t>10828</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6566</t>
+          <t>6027</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3643</t>
+          <t>3499</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>567</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -500,8 +500,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -535,8 +535,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -570,8 +570,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -605,8 +605,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -640,8 +640,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -675,8 +675,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -710,8 +710,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -745,8 +745,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -780,8 +780,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -815,8 +815,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -850,8 +850,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -885,8 +885,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,8 +920,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -955,8 +955,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -990,8 +990,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1025,8 +1025,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>647</v>
+        <v>790.8</v>
       </c>
       <c r="D5" t="n">
         <v>648</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>618.1999999999999</v>
+        <v>772.5</v>
       </c>
       <c r="D6" t="n">
         <v>629</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>643.4</v>
+        <v>775.8</v>
       </c>
       <c r="D7" t="n">
         <v>643</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>597.1</v>
+        <v>706.1999999999999</v>
       </c>
       <c r="D8" t="n">
         <v>603</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>594.4499999999999</v>
+        <v>701.3</v>
       </c>
       <c r="D13" t="n">
         <v>583</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>576.5500000000001</v>
+        <v>700.4</v>
       </c>
       <c r="D14" t="n">
         <v>577</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>580.5</v>
+        <v>702.6999999999999</v>
       </c>
       <c r="D15" t="n">
         <v>566</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>567.15</v>
+        <v>674</v>
       </c>
       <c r="D16" t="n">
         <v>564</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>580</v>
+        <v>677.4</v>
       </c>
       <c r="D17" t="n">
         <v>565</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10828</t>
+          <t>11925</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6027</t>
+          <t>6566</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>3643</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>612</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1054.9</v>
+        <v>860.8999999999999</v>
       </c>
       <c r="D2" t="n">
         <v>1082</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>926.5</v>
+        <v>751.5</v>
       </c>
       <c r="D3" t="n">
         <v>887</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>870.9000000000001</v>
+        <v>727.9</v>
       </c>
       <c r="D4" t="n">
         <v>894</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>790.8</v>
+        <v>672.3</v>
       </c>
       <c r="D5" t="n">
         <v>648</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>772.5</v>
+        <v>659</v>
       </c>
       <c r="D6" t="n">
         <v>629</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>775.8</v>
+        <v>662.3</v>
       </c>
       <c r="D7" t="n">
         <v>643</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>706.1999999999999</v>
+        <v>606.2</v>
       </c>
       <c r="D8" t="n">
         <v>603</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>668.9</v>
+        <v>591.9</v>
       </c>
       <c r="D9" t="n">
         <v>625</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>612.2</v>
+        <v>559.7</v>
       </c>
       <c r="D10" t="n">
         <v>588</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>633.6999999999999</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="D11" t="n">
         <v>591</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>656.6</v>
+        <v>586.1</v>
       </c>
       <c r="D12" t="n">
         <v>591</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>701.3</v>
+        <v>603.8</v>
       </c>
       <c r="D13" t="n">
         <v>583</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>700.4</v>
+        <v>586.9</v>
       </c>
       <c r="D14" t="n">
         <v>577</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>702.6999999999999</v>
+        <v>591.1999999999999</v>
       </c>
       <c r="D15" t="n">
         <v>566</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>674</v>
+        <v>573.5</v>
       </c>
       <c r="D16" t="n">
         <v>564</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>677.4</v>
+        <v>579.4</v>
       </c>
       <c r="D17" t="n">
         <v>565</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11925</t>
+          <t>10197</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6566</t>
+          <t>5532</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3643</t>
+          <t>3013</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>861</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>560</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>860.8999999999999</v>
+        <v>860</v>
       </c>
       <c r="D2" t="n">
         <v>1082</v>
@@ -500,7 +500,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>751.5</v>
+        <v>753</v>
       </c>
       <c r="D3" t="n">
         <v>887</v>
@@ -535,7 +535,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>727.9</v>
+        <v>729</v>
       </c>
       <c r="D4" t="n">
         <v>894</v>
@@ -570,7 +570,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>672.3</v>
+        <v>672</v>
       </c>
       <c r="D5" t="n">
         <v>648</v>
@@ -605,7 +605,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D6" t="n">
         <v>629</v>
@@ -640,7 +640,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>662.3</v>
+        <v>662</v>
       </c>
       <c r="D7" t="n">
         <v>643</v>
@@ -675,7 +675,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>606.2</v>
+        <v>606</v>
       </c>
       <c r="D8" t="n">
         <v>603</v>
@@ -710,7 +710,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>591.9</v>
+        <v>593</v>
       </c>
       <c r="D9" t="n">
         <v>625</v>
@@ -745,7 +745,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>559.7</v>
+        <v>558</v>
       </c>
       <c r="D10" t="n">
         <v>588</v>
@@ -780,7 +780,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>584.1999999999999</v>
+        <v>584</v>
       </c>
       <c r="D11" t="n">
         <v>591</v>
@@ -815,7 +815,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>586.1</v>
+        <v>586</v>
       </c>
       <c r="D12" t="n">
         <v>591</v>
@@ -850,7 +850,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>603.8</v>
+        <v>604</v>
       </c>
       <c r="D13" t="n">
         <v>583</v>
@@ -885,7 +885,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>586.9</v>
+        <v>587</v>
       </c>
       <c r="D14" t="n">
         <v>577</v>
@@ -920,7 +920,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>591.1999999999999</v>
+        <v>590</v>
       </c>
       <c r="D15" t="n">
         <v>566</v>
@@ -955,7 +955,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>573.5</v>
+        <v>574</v>
       </c>
       <c r="D16" t="n">
         <v>564</v>
@@ -990,7 +990,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>579.4</v>
+        <v>580</v>
       </c>
       <c r="D17" t="n">
         <v>565</v>
@@ -1025,7 +1025,7 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10197</t>
+          <t>10196</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5532</t>
+          <t>5533</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>3014</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>860</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>558</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>860</v>
+        <v>690</v>
       </c>
       <c r="D2" t="n">
-        <v>1082</v>
+        <v>621</v>
       </c>
       <c r="E2" t="n">
-        <v>1221</v>
+        <v>669</v>
       </c>
       <c r="F2" t="n">
-        <v>1331</v>
+        <v>703</v>
       </c>
       <c r="G2" t="n">
-        <v>1494</v>
+        <v>752</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>753</v>
+        <v>684</v>
       </c>
       <c r="D3" t="n">
-        <v>887</v>
+        <v>627</v>
       </c>
       <c r="E3" t="n">
-        <v>991</v>
+        <v>688</v>
       </c>
       <c r="F3" t="n">
-        <v>1071</v>
+        <v>733</v>
       </c>
       <c r="G3" t="n">
-        <v>1189</v>
+        <v>798</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>729</v>
+        <v>645</v>
       </c>
       <c r="D4" t="n">
-        <v>894</v>
+        <v>619</v>
       </c>
       <c r="E4" t="n">
-        <v>1030</v>
+        <v>683</v>
       </c>
       <c r="F4" t="n">
-        <v>1145</v>
+        <v>730</v>
       </c>
       <c r="G4" t="n">
-        <v>1317</v>
+        <v>799</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>672</v>
+        <v>621</v>
       </c>
       <c r="D5" t="n">
-        <v>648</v>
+        <v>593</v>
       </c>
       <c r="E5" t="n">
-        <v>738</v>
+        <v>657</v>
       </c>
       <c r="F5" t="n">
-        <v>812</v>
+        <v>705</v>
       </c>
       <c r="G5" t="n">
-        <v>923</v>
+        <v>776</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="D6" t="n">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="E6" t="n">
-        <v>714</v>
+        <v>668</v>
       </c>
       <c r="F6" t="n">
-        <v>783</v>
+        <v>718</v>
       </c>
       <c r="G6" t="n">
-        <v>886</v>
+        <v>791</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="D7" t="n">
-        <v>643</v>
+        <v>596</v>
       </c>
       <c r="E7" t="n">
-        <v>735</v>
+        <v>663</v>
       </c>
       <c r="F7" t="n">
-        <v>811</v>
+        <v>713</v>
       </c>
       <c r="G7" t="n">
-        <v>924</v>
+        <v>788</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>606</v>
+        <v>653</v>
       </c>
       <c r="D8" t="n">
-        <v>603</v>
+        <v>564</v>
       </c>
       <c r="E8" t="n">
-        <v>686</v>
+        <v>630</v>
       </c>
       <c r="F8" t="n">
-        <v>755</v>
+        <v>681</v>
       </c>
       <c r="G8" t="n">
-        <v>856</v>
+        <v>757</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>593</v>
+        <v>660</v>
       </c>
       <c r="D9" t="n">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="E9" t="n">
-        <v>712</v>
+        <v>650</v>
       </c>
       <c r="F9" t="n">
-        <v>782</v>
+        <v>701</v>
       </c>
       <c r="G9" t="n">
-        <v>887</v>
+        <v>776</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>558</v>
+        <v>645</v>
       </c>
       <c r="D10" t="n">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="E10" t="n">
-        <v>674</v>
+        <v>628</v>
       </c>
       <c r="F10" t="n">
-        <v>745</v>
+        <v>682</v>
       </c>
       <c r="G10" t="n">
-        <v>852</v>
+        <v>763</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>584</v>
+        <v>640</v>
       </c>
       <c r="D11" t="n">
-        <v>591</v>
+        <v>565</v>
       </c>
       <c r="E11" t="n">
-        <v>670</v>
+        <v>634</v>
       </c>
       <c r="F11" t="n">
-        <v>734</v>
+        <v>688</v>
       </c>
       <c r="G11" t="n">
-        <v>830</v>
+        <v>768</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>586</v>
+        <v>638</v>
       </c>
       <c r="D12" t="n">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="E12" t="n">
-        <v>672</v>
+        <v>637</v>
       </c>
       <c r="F12" t="n">
-        <v>738</v>
+        <v>692</v>
       </c>
       <c r="G12" t="n">
-        <v>836</v>
+        <v>772</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="D13" t="n">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="E13" t="n">
-        <v>670</v>
+        <v>635</v>
       </c>
       <c r="F13" t="n">
-        <v>742</v>
+        <v>692</v>
       </c>
       <c r="G13" t="n">
-        <v>851</v>
+        <v>775</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>587</v>
+        <v>641</v>
       </c>
       <c r="D14" t="n">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="E14" t="n">
-        <v>661</v>
+        <v>623</v>
       </c>
       <c r="F14" t="n">
-        <v>732</v>
+        <v>679</v>
       </c>
       <c r="G14" t="n">
-        <v>837</v>
+        <v>762</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>590</v>
+        <v>646</v>
       </c>
       <c r="D15" t="n">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="E15" t="n">
-        <v>651</v>
+        <v>609</v>
       </c>
       <c r="F15" t="n">
-        <v>722</v>
+        <v>666</v>
       </c>
       <c r="G15" t="n">
-        <v>828</v>
+        <v>751</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>574</v>
+        <v>654</v>
       </c>
       <c r="D16" t="n">
-        <v>564</v>
+        <v>527</v>
       </c>
       <c r="E16" t="n">
-        <v>653</v>
+        <v>599</v>
       </c>
       <c r="F16" t="n">
-        <v>729</v>
+        <v>657</v>
       </c>
       <c r="G16" t="n">
-        <v>844</v>
+        <v>744</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>580</v>
+        <v>668</v>
       </c>
       <c r="D17" t="n">
-        <v>565</v>
+        <v>531</v>
       </c>
       <c r="E17" t="n">
-        <v>651</v>
+        <v>602</v>
       </c>
       <c r="F17" t="n">
-        <v>725</v>
+        <v>659</v>
       </c>
       <c r="G17" t="n">
-        <v>835</v>
+        <v>744</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-11-24</t>
+          <t>2022-12-25 to 2024-12-29</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>1158</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>514</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>562</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>235</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>51410 units</t>
+          <t>54516 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10196</t>
+          <t>10408</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>5238</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>2640</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>690</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>621</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D2" t="n">
         <v>621</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D4" t="n">
         <v>619</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D5" t="n">
         <v>593</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D6" t="n">
         <v>603</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D8" t="n">
         <v>564</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D10" t="n">
         <v>559</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D13" t="n">
         <v>563</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D16" t="n">
         <v>527</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10408</t>
+          <t>10412</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5238</t>
+          <t>5240</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2640</t>
+          <t>2639</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>689</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>623</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D2" t="n">
         <v>621</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D3" t="n">
         <v>627</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D4" t="n">
         <v>619</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D5" t="n">
         <v>593</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D7" t="n">
         <v>596</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D10" t="n">
         <v>559</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D12" t="n">
         <v>568</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D13" t="n">
         <v>563</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D16" t="n">
         <v>527</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D17" t="n">
         <v>531</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10412</t>
+          <t>10411</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5240</t>
+          <t>5241</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>2641</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>688</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>622</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>688</v>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="D2" t="n">
+        <v>687</v>
+      </c>
+      <c r="E2" t="n">
         <v>621</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>669</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>703</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>752</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>685</v>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="D3" t="n">
+        <v>682</v>
+      </c>
+      <c r="E3" t="n">
         <v>627</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>688</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>733</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>798</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>645</v>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="D4" t="n">
+        <v>642</v>
+      </c>
+      <c r="E4" t="n">
         <v>619</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>683</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>730</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>799</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>622</v>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="D5" t="n">
+        <v>620</v>
+      </c>
+      <c r="E5" t="n">
         <v>593</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>657</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>705</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>776</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>635</v>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="D6" t="n">
+        <v>632</v>
+      </c>
+      <c r="E6" t="n">
         <v>603</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>668</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>718</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>791</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>651</v>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="D7" t="n">
+        <v>649</v>
+      </c>
+      <c r="E7" t="n">
         <v>596</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>663</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>713</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>788</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>654</v>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="D8" t="n">
+        <v>653</v>
+      </c>
+      <c r="E8" t="n">
         <v>564</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>630</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>681</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>757</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>660</v>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="D9" t="n">
+        <v>658</v>
+      </c>
+      <c r="E9" t="n">
         <v>583</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>650</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>701</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>776</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>645</v>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="D10" t="n">
+        <v>643</v>
+      </c>
+      <c r="E10" t="n">
         <v>559</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>628</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>682</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>763</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>640</v>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="D11" t="n">
+        <v>638</v>
+      </c>
+      <c r="E11" t="n">
         <v>565</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>634</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>688</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>768</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>636</v>
+      </c>
+      <c r="E12" t="n">
+        <v>568</v>
+      </c>
+      <c r="F12" t="n">
         <v>637</v>
       </c>
-      <c r="D12" t="n">
-        <v>568</v>
-      </c>
-      <c r="E12" t="n">
-        <v>637</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>692</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>772</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>638</v>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="D13" t="n">
+        <v>636</v>
+      </c>
+      <c r="E13" t="n">
         <v>563</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>635</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>692</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>775</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>641</v>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="D14" t="n">
+        <v>639</v>
+      </c>
+      <c r="E14" t="n">
         <v>552</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>623</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>679</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>762</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>646</v>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="D15" t="n">
+        <v>645</v>
+      </c>
+      <c r="E15" t="n">
         <v>537</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>609</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>666</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>751</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>654</v>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="D16" t="n">
+        <v>653</v>
+      </c>
+      <c r="E16" t="n">
         <v>527</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>599</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>657</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>744</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>669</v>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
       </c>
       <c r="D17" t="n">
+        <v>666</v>
+      </c>
+      <c r="E17" t="n">
         <v>531</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>602</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>659</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>744</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10411</t>
+          <t>10380</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5241</t>
+          <t>5223</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2632</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>687</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>620</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E2" t="n">
         <v>621</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E3" t="n">
         <v>627</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="E4" t="n">
         <v>619</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="E5" t="n">
         <v>593</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E6" t="n">
         <v>603</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="E7" t="n">
         <v>596</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E8" t="n">
         <v>564</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E9" t="n">
         <v>583</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E10" t="n">
         <v>559</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E11" t="n">
         <v>565</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E12" t="n">
         <v>568</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E13" t="n">
         <v>563</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E14" t="n">
         <v>552</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E15" t="n">
         <v>537</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E16" t="n">
         <v>527</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="E17" t="n">
         <v>531</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10380</t>
+          <t>10416</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5223</t>
+          <t>5243</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2632</t>
+          <t>2642</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>689</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>623</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E2" t="n">
         <v>621</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E3" t="n">
         <v>627</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E4" t="n">
         <v>619</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E5" t="n">
         <v>593</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E6" t="n">
         <v>603</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E7" t="n">
         <v>596</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E8" t="n">
         <v>564</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E9" t="n">
         <v>583</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E10" t="n">
         <v>559</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E11" t="n">
         <v>565</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E12" t="n">
         <v>568</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E13" t="n">
         <v>563</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E14" t="n">
         <v>552</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E15" t="n">
         <v>537</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E16" t="n">
         <v>527</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E17" t="n">
         <v>531</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10416</t>
+          <t>10376</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5243</t>
+          <t>5223</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2642</t>
+          <t>2631</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>687</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>621</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E2" t="n">
         <v>621</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E3" t="n">
         <v>627</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E4" t="n">
         <v>619</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E5" t="n">
         <v>593</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E6" t="n">
         <v>603</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E7" t="n">
         <v>596</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E8" t="n">
         <v>564</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E9" t="n">
         <v>583</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E10" t="n">
         <v>559</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E11" t="n">
         <v>565</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E12" t="n">
         <v>568</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E13" t="n">
         <v>563</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="E14" t="n">
         <v>552</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E15" t="n">
         <v>537</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="E16" t="n">
         <v>527</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="E17" t="n">
         <v>531</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10376</t>
+          <t>10414</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5223</t>
+          <t>5241</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>2641</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>689</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>622</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="E2" t="n">
         <v>621</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>685</v>
+        <v>633</v>
       </c>
       <c r="E3" t="n">
         <v>627</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="E4" t="n">
         <v>619</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E5" t="n">
         <v>593</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="E6" t="n">
         <v>603</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>652</v>
+        <v>683</v>
       </c>
       <c r="E7" t="n">
         <v>596</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="E8" t="n">
         <v>564</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="E9" t="n">
         <v>583</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="E10" t="n">
         <v>559</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="E11" t="n">
         <v>565</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="E12" t="n">
         <v>568</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="E13" t="n">
         <v>563</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>642</v>
+        <v>684</v>
       </c>
       <c r="E14" t="n">
         <v>552</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>646</v>
+        <v>701</v>
       </c>
       <c r="E15" t="n">
         <v>537</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>655</v>
+        <v>727</v>
       </c>
       <c r="E16" t="n">
         <v>527</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>669</v>
+        <v>761</v>
       </c>
       <c r="E17" t="n">
         <v>531</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-12-29</t>
+          <t>2022-12-25 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>1148</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>561</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>233</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>54516 units</t>
+          <t>55006 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10414</t>
+          <t>10715</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5241</t>
+          <t>5236</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2551</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>761</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-04-27</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>605</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>694</v>
+        <v>590</v>
       </c>
       <c r="E2" t="n">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F2" t="n">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="G2" t="n">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="H2" t="n">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="E3" t="n">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="F3" t="n">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="G3" t="n">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="H3" t="n">
-        <v>798</v>
+        <v>764</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="E4" t="n">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="F4" t="n">
-        <v>683</v>
+        <v>645</v>
       </c>
       <c r="G4" t="n">
-        <v>730</v>
+        <v>688</v>
       </c>
       <c r="H4" t="n">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="E5" t="n">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="F5" t="n">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="G5" t="n">
-        <v>705</v>
+        <v>679</v>
       </c>
       <c r="H5" t="n">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>654</v>
+        <v>610</v>
       </c>
       <c r="E6" t="n">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="F6" t="n">
-        <v>668</v>
+        <v>637</v>
       </c>
       <c r="G6" t="n">
-        <v>718</v>
+        <v>683</v>
       </c>
       <c r="H6" t="n">
-        <v>791</v>
+        <v>749</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>683</v>
+        <v>592</v>
       </c>
       <c r="E7" t="n">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="F7" t="n">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="G7" t="n">
-        <v>713</v>
+        <v>675</v>
       </c>
       <c r="H7" t="n">
-        <v>788</v>
+        <v>745</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>682</v>
+        <v>590</v>
       </c>
       <c r="E8" t="n">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="F8" t="n">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="G8" t="n">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="H8" t="n">
-        <v>757</v>
+        <v>726</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>666</v>
+        <v>578</v>
       </c>
       <c r="E9" t="n">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="F9" t="n">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="G9" t="n">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="H9" t="n">
-        <v>776</v>
+        <v>749</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>648</v>
+        <v>580</v>
       </c>
       <c r="E10" t="n">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="F10" t="n">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="G10" t="n">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="H10" t="n">
-        <v>763</v>
+        <v>740</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>644</v>
+        <v>569</v>
       </c>
       <c r="E11" t="n">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="F11" t="n">
-        <v>634</v>
+        <v>606</v>
       </c>
       <c r="G11" t="n">
-        <v>688</v>
+        <v>658</v>
       </c>
       <c r="H11" t="n">
-        <v>768</v>
+        <v>735</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="E12" t="n">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="F12" t="n">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="G12" t="n">
-        <v>692</v>
+        <v>661</v>
       </c>
       <c r="H12" t="n">
-        <v>772</v>
+        <v>736</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>664</v>
+        <v>582</v>
       </c>
       <c r="E13" t="n">
-        <v>563</v>
+        <v>529</v>
       </c>
       <c r="F13" t="n">
-        <v>635</v>
+        <v>596</v>
       </c>
       <c r="G13" t="n">
-        <v>692</v>
+        <v>650</v>
       </c>
       <c r="H13" t="n">
-        <v>775</v>
+        <v>729</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>684</v>
+        <v>602</v>
       </c>
       <c r="E14" t="n">
-        <v>552</v>
+        <v>525</v>
       </c>
       <c r="F14" t="n">
-        <v>623</v>
+        <v>591</v>
       </c>
       <c r="G14" t="n">
-        <v>679</v>
+        <v>644</v>
       </c>
       <c r="H14" t="n">
-        <v>762</v>
+        <v>722</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>701</v>
+        <v>597</v>
       </c>
       <c r="E15" t="n">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="F15" t="n">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="G15" t="n">
-        <v>666</v>
+        <v>632</v>
       </c>
       <c r="H15" t="n">
-        <v>751</v>
+        <v>712</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>727</v>
+        <v>624</v>
       </c>
       <c r="E16" t="n">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="F16" t="n">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="G16" t="n">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="H16" t="n">
-        <v>744</v>
+        <v>711</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>761</v>
+        <v>632</v>
       </c>
       <c r="E17" t="n">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="F17" t="n">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="G17" t="n">
-        <v>659</v>
+        <v>628</v>
       </c>
       <c r="H17" t="n">
-        <v>744</v>
+        <v>709</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-05</t>
+          <t>2022-12-25 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>1137</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>515</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>562</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>232</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>55006 units</t>
+          <t>55570 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10715</t>
+          <t>9469</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5236</t>
+          <t>4692</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2551</t>
+          <t>2323</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>632</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>567</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E2" t="n">
         <v>615</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E3" t="n">
         <v>614</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E4" t="n">
         <v>588</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E5" t="n">
         <v>577</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E7" t="n">
         <v>564</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E8" t="n">
         <v>542</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E13" t="n">
         <v>529</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="E16" t="n">
         <v>508</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E17" t="n">
         <v>505</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9469</t>
+          <t>9470</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4692</t>
+          <t>4693</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2323</t>
+          <t>2322</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>633</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>565</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="E2" t="n">
         <v>615</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="E3" t="n">
         <v>614</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="E4" t="n">
         <v>588</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>584</v>
+        <v>628</v>
       </c>
       <c r="E5" t="n">
         <v>577</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="E6" t="n">
         <v>577</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>593</v>
+        <v>648</v>
       </c>
       <c r="E7" t="n">
         <v>564</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>591</v>
+        <v>634</v>
       </c>
       <c r="E8" t="n">
         <v>542</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>578</v>
+        <v>619</v>
       </c>
       <c r="E9" t="n">
         <v>563</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="E10" t="n">
         <v>542</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>569</v>
+        <v>619</v>
       </c>
       <c r="E11" t="n">
         <v>539</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>589</v>
+        <v>631</v>
       </c>
       <c r="E12" t="n">
         <v>544</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>581</v>
+        <v>648</v>
       </c>
       <c r="E13" t="n">
         <v>529</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>602</v>
+        <v>667</v>
       </c>
       <c r="E14" t="n">
         <v>525</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>597</v>
+        <v>692</v>
       </c>
       <c r="E15" t="n">
         <v>509</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>627</v>
+        <v>724</v>
       </c>
       <c r="E16" t="n">
         <v>508</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>633</v>
+        <v>766</v>
       </c>
       <c r="E17" t="n">
         <v>505</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9470</t>
+          <t>10313</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4693</t>
+          <t>4951</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2322</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>766</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>575</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="E2" t="n">
         <v>615</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="E3" t="n">
         <v>614</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E4" t="n">
         <v>588</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E5" t="n">
         <v>577</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="E6" t="n">
         <v>577</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="E7" t="n">
         <v>564</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E8" t="n">
         <v>542</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E9" t="n">
         <v>563</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E10" t="n">
         <v>542</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="E11" t="n">
         <v>539</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="E12" t="n">
         <v>544</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="E13" t="n">
         <v>529</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="E14" t="n">
         <v>525</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E15" t="n">
         <v>509</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="E16" t="n">
         <v>508</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="E17" t="n">
         <v>505</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10313</t>
+          <t>10377</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4951</t>
+          <t>4987</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2420</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>770</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>581</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>608</v>
+        <v>556</v>
       </c>
       <c r="E2" t="n">
         <v>615</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E3" t="n">
         <v>614</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="E4" t="n">
         <v>588</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="E5" t="n">
         <v>577</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="E6" t="n">
         <v>577</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>654</v>
+        <v>614</v>
       </c>
       <c r="E7" t="n">
         <v>564</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>636</v>
+        <v>595</v>
       </c>
       <c r="E8" t="n">
         <v>542</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>621</v>
+        <v>589</v>
       </c>
       <c r="E9" t="n">
         <v>563</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="E10" t="n">
         <v>542</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="E11" t="n">
         <v>539</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="E12" t="n">
         <v>544</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="E13" t="n">
         <v>529</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="E15" t="n">
         <v>509</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>729</v>
+        <v>660</v>
       </c>
       <c r="E16" t="n">
         <v>508</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>770</v>
+        <v>656</v>
       </c>
       <c r="E17" t="n">
         <v>505</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-12</t>
+          <t>2022-12-25 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>1158</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>521</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>563</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>239</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>55570 units</t>
+          <t>56749 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10377</t>
+          <t>9933</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4987</t>
+          <t>4813</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2420</t>
+          <t>2385</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>671</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>556</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E2" t="n">
         <v>615</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E3" t="n">
         <v>614</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E4" t="n">
         <v>588</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E5" t="n">
         <v>577</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E6" t="n">
         <v>577</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E7" t="n">
         <v>564</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E8" t="n">
         <v>542</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E11" t="n">
         <v>539</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E12" t="n">
         <v>544</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="E13" t="n">
         <v>529</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>1126</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>514</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>561</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>231</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>56749 units</t>
+          <t>56078 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9933</t>
+          <t>9929</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4813</t>
+          <t>4806</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2385</t>
+          <t>2378</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>554</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="E2" t="n">
         <v>615</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E3" t="n">
         <v>614</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="E4" t="n">
         <v>588</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="E5" t="n">
         <v>577</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E6" t="n">
         <v>577</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="E7" t="n">
         <v>564</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E8" t="n">
         <v>542</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="E9" t="n">
         <v>563</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E10" t="n">
         <v>542</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="E11" t="n">
         <v>539</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="E12" t="n">
         <v>544</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E13" t="n">
         <v>529</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E14" t="n">
         <v>525</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9929</t>
+          <t>9978</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4806</t>
+          <t>4841</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2378</t>
+          <t>2399</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>674</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>561</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="E2" t="n">
         <v>615</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="E3" t="n">
         <v>614</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="E4" t="n">
         <v>588</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E5" t="n">
         <v>577</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="E6" t="n">
         <v>577</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="E7" t="n">
         <v>564</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="E8" t="n">
         <v>542</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="E9" t="n">
         <v>563</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="E10" t="n">
         <v>542</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="E11" t="n">
         <v>539</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="E12" t="n">
         <v>544</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="E13" t="n">
         <v>529</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="E14" t="n">
         <v>525</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9978</t>
+          <t>10059</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4841</t>
+          <t>4892</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>2423</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>677</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>570</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
+++ b/Sufficient data/forecast_summary_B091HTG6DQ.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="E2" t="n">
-        <v>615</v>
+        <v>533</v>
       </c>
       <c r="F2" t="n">
-        <v>659</v>
+        <v>572</v>
       </c>
       <c r="G2" t="n">
-        <v>689</v>
+        <v>599</v>
       </c>
       <c r="H2" t="n">
-        <v>732</v>
+        <v>638</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="E3" t="n">
-        <v>614</v>
+        <v>541</v>
       </c>
       <c r="F3" t="n">
-        <v>669</v>
+        <v>591</v>
       </c>
       <c r="G3" t="n">
-        <v>707</v>
+        <v>628</v>
       </c>
       <c r="H3" t="n">
-        <v>764</v>
+        <v>681</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>623</v>
+        <v>667</v>
       </c>
       <c r="E4" t="n">
-        <v>588</v>
+        <v>527</v>
       </c>
       <c r="F4" t="n">
-        <v>645</v>
+        <v>581</v>
       </c>
       <c r="G4" t="n">
-        <v>688</v>
+        <v>622</v>
       </c>
       <c r="H4" t="n">
-        <v>749</v>
+        <v>680</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>642</v>
+        <v>672</v>
       </c>
       <c r="E5" t="n">
-        <v>577</v>
+        <v>525</v>
       </c>
       <c r="F5" t="n">
-        <v>636</v>
+        <v>580</v>
       </c>
       <c r="G5" t="n">
-        <v>679</v>
+        <v>621</v>
       </c>
       <c r="H5" t="n">
-        <v>742</v>
+        <v>681</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="E6" t="n">
-        <v>577</v>
+        <v>530</v>
       </c>
       <c r="F6" t="n">
-        <v>637</v>
+        <v>588</v>
       </c>
       <c r="G6" t="n">
-        <v>683</v>
+        <v>632</v>
       </c>
       <c r="H6" t="n">
-        <v>749</v>
+        <v>696</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="E7" t="n">
-        <v>564</v>
+        <v>527</v>
       </c>
       <c r="F7" t="n">
-        <v>627</v>
+        <v>588</v>
       </c>
       <c r="G7" t="n">
-        <v>675</v>
+        <v>635</v>
       </c>
       <c r="H7" t="n">
-        <v>745</v>
+        <v>703</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E8" t="n">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="F8" t="n">
-        <v>606</v>
+        <v>562</v>
       </c>
       <c r="G8" t="n">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="H8" t="n">
-        <v>726</v>
+        <v>681</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="E9" t="n">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="F9" t="n">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="G9" t="n">
-        <v>677</v>
+        <v>638</v>
       </c>
       <c r="H9" t="n">
-        <v>749</v>
+        <v>709</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>606</v>
+        <v>643</v>
       </c>
       <c r="E10" t="n">
-        <v>542</v>
+        <v>505</v>
       </c>
       <c r="F10" t="n">
-        <v>609</v>
+        <v>570</v>
       </c>
       <c r="G10" t="n">
-        <v>662</v>
+        <v>621</v>
       </c>
       <c r="H10" t="n">
-        <v>740</v>
+        <v>697</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="E11" t="n">
-        <v>539</v>
+        <v>504</v>
       </c>
       <c r="F11" t="n">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="G11" t="n">
-        <v>658</v>
+        <v>620</v>
       </c>
       <c r="H11" t="n">
-        <v>735</v>
+        <v>695</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="E12" t="n">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="F12" t="n">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="G12" t="n">
-        <v>661</v>
+        <v>622</v>
       </c>
       <c r="H12" t="n">
-        <v>736</v>
+        <v>695</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E13" t="n">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="F13" t="n">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="G13" t="n">
-        <v>650</v>
+        <v>613</v>
       </c>
       <c r="H13" t="n">
-        <v>729</v>
+        <v>689</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>677</v>
+        <v>641</v>
       </c>
       <c r="E14" t="n">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="F14" t="n">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="G14" t="n">
-        <v>644</v>
+        <v>610</v>
       </c>
       <c r="H14" t="n">
-        <v>722</v>
+        <v>686</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>662</v>
+        <v>623</v>
       </c>
       <c r="E15" t="n">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="F15" t="n">
-        <v>577</v>
+        <v>544</v>
       </c>
       <c r="G15" t="n">
-        <v>632</v>
+        <v>597</v>
       </c>
       <c r="H15" t="n">
-        <v>712</v>
+        <v>675</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="E16" t="n">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="F16" t="n">
-        <v>576</v>
+        <v>547</v>
       </c>
       <c r="G16" t="n">
-        <v>630</v>
+        <v>599</v>
       </c>
       <c r="H16" t="n">
-        <v>711</v>
+        <v>676</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="E17" t="n">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="F17" t="n">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="G17" t="n">
-        <v>628</v>
+        <v>599</v>
       </c>
       <c r="H17" t="n">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-19</t>
+          <t>2022-12-25 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>1124</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>560</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>230</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>56078 units</t>
+          <t>56512 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10059</t>
+          <t>10206</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4892</t>
+          <t>5087</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2423</t>
+          <t>2581</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>672</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>604</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
